--- a/ap_ac_2024.xlsx
+++ b/ap_ac_2024.xlsx
@@ -4404,7 +4404,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Pulaparthi Ramanjaneyulu (Anji babu)</t>
+          <t>Pulaparthi Ramanjaneyulu</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
